--- a/data/trans_dic/P16_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con salud autopercibida regular o mala</t>
+          <t>Población con salud autopercibida regular o mala (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,78%</t>
+          <t>34,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>36,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>43,95%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>44,23%</t>
+          <t>34,83%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>53,16%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>43,14%</t>
+          <t>23,18%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>27,49%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>32,26%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>35,23%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>45,39%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,05; 31,27</t>
+          <t>6,62; 20,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,6; 30,88</t>
+          <t>10,57; 25,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,36; 35,94</t>
+          <t>22,99; 36,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,26; 35,93</t>
+          <t>22,14; 35,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,85; 47,95</t>
+          <t>21,28; 44,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,44; 39,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,43; 43,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,31; 40,48</t>
+          <t>24,33; 42,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38,21; 51,82</t>
+          <t>28,07; 44,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>37,63; 50,22</t>
+          <t>28,85; 40,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,69; 33,29</t>
+          <t>35,77; 46,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,18; 35,55</t>
+          <t>45,19; 62,04</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>28,77; 36,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>32,51; 42,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>39,04; 47,49</t>
+          <t>17,57; 29,75</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>21,81; 33,42</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>27,51; 36,62</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>31,18; 39,58</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>38,12; 52,65</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>13,74%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>12,29%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>12,47%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>23,3%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 12,51</t>
+          <t>5,74; 13,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 11,11</t>
+          <t>6,63; 12,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 9,96</t>
+          <t>6,27; 10,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,6</t>
+          <t>9,59; 15,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,8; 24,19</t>
+          <t>14,75; 27,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,47; 22,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 18,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,21; 17,72</t>
+          <t>13,8; 23,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,16; 24,57</t>
+          <t>11,35; 19,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,04; 32,14</t>
+          <t>13,62; 20,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,73; 16,52</t>
+          <t>18,38; 25,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,04; 13,82</t>
+          <t>22,52; 31,78</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,59; 12,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 18,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>20,88; 26,29</t>
+          <t>10,8; 16,99</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>9,95; 15,4</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>10,62; 14,68</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>14,61; 19,29</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>19,93; 27,62</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>9,54%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10,48%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>13,29%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 14,48</t>
+          <t>4,75; 13,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 14,2</t>
+          <t>4,93; 13,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 12,29</t>
+          <t>4,64; 12,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 10,83</t>
+          <t>5,64; 10,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,45; 17,13</t>
+          <t>6,6; 14,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 12,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 11,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,49; 14,84</t>
+          <t>7,1; 14,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,2; 14,63</t>
+          <t>5,59; 12,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,81; 16,28</t>
+          <t>10,29; 16,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 12,04</t>
+          <t>9,47; 14,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 11,53</t>
+          <t>12,74; 20,7</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>7,86; 12,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 11,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 15,15</t>
+          <t>6,95; 12,8</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,31; 11,48</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8,38; 13,59</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>8,17; 11,94</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>10,69; 16,25</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>33,89%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>17,52%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>16,9%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>16,41%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>24,66%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,28; 14,4</t>
+          <t>11,23; 17,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,15; 14,08</t>
+          <t>9,62; 18,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,56; 15,13</t>
+          <t>8,11; 18,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,44; 16,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,46; 27,21</t>
+          <t>12,62; 21,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 21,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 20,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,54; 21,32</t>
+          <t>18,79; 24,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,76; 27,38</t>
+          <t>17,34; 24,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,08; 32,91</t>
+          <t>17,1; 26,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,72; 17,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,03; 16,34</t>
+          <t>28,43; 39,98</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>14,38; 17,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>17,65; 21,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>25,1; 29,18</t>
+          <t>15,53; 19,6</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>14,47; 19,75</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>13,39; 20,45</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>21,46; 28,59</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12,14%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12,26%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18,1%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19,82%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,27%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19,9%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23,19%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>30,96%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>16,15%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>18,76%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>24,68%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10,22; 14,53</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9,53; 14,1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10,41; 14,67</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12,15; 16,5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15,48; 21,55</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17,79; 21,95</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,06; 20,64</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18,06; 22,0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>21,23; 25,44</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>28,3; 34,51</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>14,64; 17,51</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>13,54; 16,62</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>14,75; 17,71</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>17,22; 20,33</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>22,66; 26,88</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud autopercibida regular o mala (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>27446</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>58555</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>154212</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>202379</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>152920</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>85734</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>149651</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>220685</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>369462</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>343009</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>113180</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>208206</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>374897</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>571841</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>495929</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15001; 47225</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>35854; 85869</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>121497; 192277</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>161240; 257239</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>95182; 197558</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>63671; 110135</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>117386; 184477</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>182798; 259463</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>320193; 413669</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>291620; 400353</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>85769; 145246</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>165170; 253129</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>319698; 425539</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>506158; 642515</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>416563; 575257</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>56384</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>87575</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>100692</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>199831</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>209031</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>131237</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>148910</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>203509</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>319635</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>291758</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>187621</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>236484</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>304201</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>519466</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>500788</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>37356; 86824</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>61664; 119420</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>75717; 132342</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>155504; 248281</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>157606; 293303</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>98665; 170367</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>112918; 196240</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>168020; 247915</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>275815; 376487</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>243342; 343431</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>147570; 232121</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>191596; 296364</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>259261; 358234</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>456238; 602470</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>428266; 593444</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>39321</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>59877</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>64848</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>86205</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>80936</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>54875</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>62681</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>122483</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>136347</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>148487</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>94196</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>122558</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>187331</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>222553</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>229423</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>21639; 60069</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35273; 98193</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>39230; 104751</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>61678; 120008</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>54711; 116949</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>37728; 77729</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42979; 92290</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>96948; 154330</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>110181; 172096</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>114328; 185688</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>68665; 126343</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>93749; 170468</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>149748; 242928</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>184436; 269435</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>184485; 280431</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>295487</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>189148</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>102048</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>180268</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>440316</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>294044</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>163635</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>332839</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>735803</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>483192</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>265683</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>513107</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>237486; 373395</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>139921; 262201</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>69592; 155438</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>138662; 234499</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>391861; 501285</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>243355; 346343</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>130209; 200964</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>279187; 392619</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>652426; 823148</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>413523; 564531</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>216914; 331113</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>446618; 594957</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>377.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>463.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>485.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>573.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>545.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>418638</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>395154</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>421800</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>488415</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>623155</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>712162</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>655285</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>710312</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>825444</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1116093</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1130800</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1050439</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>1132112</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1313859</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>1739248</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>352387; 500751</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>327653; 484828</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>358014; 504455</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>418404; 568143</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>532835; 742152</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>639415; 788775</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>575955; 740106</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>644693; 785343</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>755473; 905419</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1020261; 1243987</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1030895; 1233144</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>951312; 1167922</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>1033946; 1241574</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>1205898; 1423556</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>1596927; 1894267</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
